--- a/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_zero.xlsx
@@ -66,76 +66,76 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>5.0 - y_1</t>
-  </si>
-  <si>
-    <t>-5.0</t>
+    <t>6.85 - y_1</t>
+  </si>
+  <si>
+    <t>-6.85</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.35</t>
+    <t>0.78</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>7.800000000000001</t>
-  </si>
-  <si>
-    <t>-5.0 + y_1</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>3.0000000000000036 - 2x + y_1 + 4y_2</t>
-  </si>
-  <si>
-    <t>-19.000000000000004</t>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>-6.85 + y_1</t>
+  </si>
+  <si>
+    <t>2.8499999999999996</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>-7.15 - 2x + y_1 + 4y_2</t>
+  </si>
+  <si>
+    <t>-8.85</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>-70.47999999999999 + 8x + y_1</t>
-  </si>
-  <si>
-    <t>21.799999999999997</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>9.200000000000001</t>
+  </si>
+  <si>
+    <t>-55.36 + 8x + y_1</t>
+  </si>
+  <si>
+    <t>7.249999999999998</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>-2.1999999999999993 - 2x - 2y_1</t>
-  </si>
-  <si>
-    <t>-14.2</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>5.699999999999999</t>
+  </si>
+  <si>
+    <t>-1.799999999999999 - 2x - 2y_1</t>
+  </si>
+  <si>
+    <t>-13.799999999999999</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
   </si>
   <si>
     <t>x</t>
@@ -147,34 +147,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.9100000000000001</t>
-  </si>
-  <si>
-    <t>-3.12</t>
+    <t>0.3999999999999999</t>
+  </si>
+  <si>
+    <t>-2.6</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>-11.4</t>
-  </si>
-  <si>
-    <t>-42.0</t>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>2.8999999999999995</t>
+  </si>
+  <si>
+    <t>-2.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -665,10 +665,10 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -705,10 +705,10 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
